--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,67 +871,67 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/incorrect_predictions_42.xlsx
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,21 +812,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,67 +871,67 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
